--- a/medicine/Mort/Tombe_de_l'Argile/Tombe_de_l'Argile.xlsx
+++ b/medicine/Mort/Tombe_de_l'Argile/Tombe_de_l'Argile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tombe_de_l%27Argile</t>
+          <t>Tombe_de_l'Argile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe de l'Argile (en italien, Tomba dell'Argilla) est une tombe étrusque de la nécropole de Banditaccia à Cerveteri.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tombe_de_l%27Argile</t>
+          <t>Tombe_de_l'Argile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Tomba dell'Argilla se trouve avec la Tomba dei Leoni dipinti et la Tombe des Chaises et des Boucliers  à l'intérieur du  Tumulus degli Scudi e delle Sedie, qui avec ses 40 m de diamètre est un des plus grands de la nécropole.
-C'est une tombe a camera réalisée entre la fin du VIe et le début du Ve siècle av. J.-C.[1].  
+C'est une tombe a camera réalisée entre la fin du VIe et le début du Ve siècle av. J.-C..  
 Elle était décorée de fresques représentant des danseurs, jongleurs, chevaux et centaures.
 </t>
         </is>
